--- a/labels/Experiment_Shiori.xlsx
+++ b/labels/Experiment_Shiori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lleoo/Documents/MATLAB Repogitory/MATLAB-Code/labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E7F7B-E02C-2E46-A450-40B71E2338DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E39DB7-0DD3-2A4B-B1AA-D3E71C50993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1360" windowWidth="27900" windowHeight="16860" xr2:uid="{1D8705DF-1D1A-CB4A-97C5-BC27481381D1}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,14 +417,14 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -438,7 +434,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -448,7 +444,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -458,7 +454,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -468,7 +464,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -478,7 +474,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -488,7 +484,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -498,7 +494,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -508,7 +504,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -518,7 +514,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -528,7 +524,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -538,7 +534,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -548,7 +544,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -558,7 +554,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -568,7 +564,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/labels/Experiment_Shiori.xlsx
+++ b/labels/Experiment_Shiori.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lleoo/Documents/MATLAB Repogitory/MATLAB-Code/labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E39DB7-0DD3-2A4B-B1AA-D3E71C50993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3235C48D-03EC-AC40-9200-24DDB047EC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1360" windowWidth="27900" windowHeight="16860" xr2:uid="{1D8705DF-1D1A-CB4A-97C5-BC27481381D1}"/>
   </bookViews>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D50F97E-DB7C-6142-AA9F-66797EF7C543}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -429,32 +429,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -464,42 +464,42 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -509,27 +509,27 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -539,32 +539,32 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:1">
